--- a/data/Spravochniki/Packs.xlsx
+++ b/data/Spravochniki/Packs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\!!!МПЗФ\Справочники\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mav\MPZF\sourcecode_sync\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>Наименование контейнера</t>
   </si>
@@ -210,13 +210,61 @@
   </si>
   <si>
     <t>1 500 х 1 500 х 2 000</t>
+  </si>
+  <si>
+    <t>МК-1,36А</t>
+  </si>
+  <si>
+    <t>МК-3,1А</t>
+  </si>
+  <si>
+    <t>КМЗ-М</t>
+  </si>
+  <si>
+    <t>КРАД-Т</t>
+  </si>
+  <si>
+    <t>КРАД-Т-М</t>
+  </si>
+  <si>
+    <t>КРАД-Т-М1</t>
+  </si>
+  <si>
+    <t>1280 x 1280 x 1060</t>
+  </si>
+  <si>
+    <t>1670 x 1670 x 1380</t>
+  </si>
+  <si>
+    <t>1660 x 1660 x 1380</t>
+  </si>
+  <si>
+    <t>1650 x 1650 x 1380</t>
+  </si>
+  <si>
+    <t>1280 х 1280 х 957</t>
+  </si>
+  <si>
+    <t>1280х1280х1057</t>
+  </si>
+  <si>
+    <t>1330 x 1330 x 1350</t>
+  </si>
+  <si>
+    <t>1350 x 1350 x 990</t>
+  </si>
+  <si>
+    <t>1280 x 1280 x 1008</t>
+  </si>
+  <si>
+    <t>1280 x 1280 x 908</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +286,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PT Astra Sans"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -316,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -339,9 +395,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,18 +715,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="38.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -674,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -693,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -712,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -733,7 +829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -752,7 +848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -773,7 +869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -794,7 +890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -813,7 +909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -832,7 +928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -851,7 +947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -870,7 +966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -889,7 +985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="19.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -908,7 +1004,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -927,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -946,7 +1042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -965,7 +1061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -984,7 +1080,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -1003,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="19.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1041,7 +1137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="19.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1060,7 +1156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="19.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="19.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1098,7 +1194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="19.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
@@ -1117,7 +1213,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="19.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
@@ -1136,7 +1232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="19.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -1155,7 +1251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="19.5" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
@@ -1174,7 +1270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="38.25" thickBot="1">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1191,7 +1287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -1210,7 +1306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -1229,7 +1325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -1246,6 +1342,258 @@
       </c>
       <c r="G32" s="4" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1.74</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1.05</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3.74</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.73</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A41" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A42" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3.74</v>
+      </c>
+      <c r="D44" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="19">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spravochniki/Packs.xlsx
+++ b/data/Spravochniki/Packs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mav\MPZF\sourcecode_sync\data\Spravochniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -182,9 +182,6 @@
     <t>Клеть с бочками (4 шт.)</t>
   </si>
   <si>
-    <t>1 280 х 1 280 х 1 000</t>
-  </si>
-  <si>
     <t>0,04 / 0,6</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>1280 x 1280 x 908</t>
+  </si>
+  <si>
+    <t>1280 х 1 280 х 1 000</t>
   </si>
 </sst>
 </file>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,7 +1256,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4">
         <v>1.64</v>
@@ -1267,15 +1267,15 @@
         <v>4</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="38.25" thickBot="1">
       <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C29" s="4">
         <v>3.68</v>
@@ -1284,15 +1284,15 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.5" thickBot="1">
       <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="4">
         <v>1.17</v>
@@ -1303,15 +1303,15 @@
         <v>4</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.5" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="4">
         <v>1.35</v>
@@ -1322,15 +1322,15 @@
         <v>4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4">
         <v>4.5</v>
@@ -1341,15 +1341,15 @@
         <v>4</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19.5" thickBot="1">
       <c r="A33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="10">
         <v>1.74</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="34" spans="1:7" ht="19.5" thickBot="1">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="10">
         <v>3.83</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="35" spans="1:7" ht="19.5" thickBot="1">
       <c r="A35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="10">
         <v>3.8</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="36" spans="1:7" ht="19.5" thickBot="1">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="10">
         <v>3.74</v>
@@ -1433,7 +1433,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="10">
         <v>1.57</v>
@@ -1454,7 +1454,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="10">
         <v>1.73</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="39" spans="1:7" ht="19.5" thickBot="1">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="10">
         <v>3.8</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="40" spans="1:7" ht="19.5" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="10">
         <v>2.39</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="41" spans="1:7" ht="19.5" thickBot="1">
       <c r="A41" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="10">
         <v>1.8</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="42" spans="1:7" ht="19.5" thickBot="1">
       <c r="A42" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="10">
         <v>1.65</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1">
       <c r="A43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="10">
         <v>1.49</v>

--- a/data/Spravochniki/Packs.xlsx
+++ b/data/Spravochniki/Packs.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$45</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>Наименование контейнера</t>
   </si>
@@ -50,9 +53,6 @@
     <t>НЗК-150-1,5П</t>
   </si>
   <si>
-    <t>1 650 х 1 650 х 1 375</t>
-  </si>
-  <si>
     <t>4,3 / 7,3</t>
   </si>
   <si>
@@ -71,15 +71,9 @@
     <t>НЗК-РАДОН</t>
   </si>
   <si>
-    <t>1 650 х 1 650 х 1 340</t>
-  </si>
-  <si>
     <t>4 / 6,5</t>
   </si>
   <si>
-    <t>1 650 х 1 650 х 1 370</t>
-  </si>
-  <si>
     <t>НЗК-МР</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>НЗК-II</t>
   </si>
   <si>
-    <t>1 750 х 1 750 х 1 340</t>
-  </si>
-  <si>
     <t>1,5 / 4,1</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>6,5 / 8,7</t>
   </si>
   <si>
-    <t>1 200 х 1 200 х 1 450</t>
-  </si>
-  <si>
     <t>ЖЗК - 1</t>
   </si>
   <si>
@@ -137,27 +125,18 @@
     <t>ЖБУ</t>
   </si>
   <si>
-    <t xml:space="preserve">    1 200 х 1200 х 1430</t>
-  </si>
-  <si>
     <t>2,5 / 4,5</t>
   </si>
   <si>
     <t>КРАД-1,36</t>
   </si>
   <si>
-    <t xml:space="preserve">    1 280 х 1 280 х 900</t>
-  </si>
-  <si>
     <t>0,256 / 3</t>
   </si>
   <si>
     <t>КРАД-3,0</t>
   </si>
   <si>
-    <t xml:space="preserve">    2 620 х 1 430 х 1080</t>
-  </si>
-  <si>
     <t>0,649 / 6</t>
   </si>
   <si>
@@ -167,15 +146,9 @@
     <t>1,16 / 10</t>
   </si>
   <si>
-    <t>1 660 х 1 660 х 1 380</t>
-  </si>
-  <si>
     <t>КМЗ-РАДОН</t>
   </si>
   <si>
-    <t>1 670 х 1 670 х 1 375</t>
-  </si>
-  <si>
     <t>1,05 / 10</t>
   </si>
   <si>
@@ -188,27 +161,15 @@
     <t>Клеть с двумя фильтр-контейнерами (ФК)</t>
   </si>
   <si>
-    <t>1 650 х 1 650 х 1 350</t>
-  </si>
-  <si>
     <t>- / 3,8</t>
   </si>
   <si>
     <t>Биг-бэг</t>
   </si>
   <si>
-    <t>950 х 950 х 1 300</t>
-  </si>
-  <si>
     <t>0,06 / 4,5</t>
   </si>
   <si>
-    <t>950 х 950 х 1 500</t>
-  </si>
-  <si>
-    <t>1 500 х 1 500 х 2 000</t>
-  </si>
-  <si>
     <t>МК-1,36А</t>
   </si>
   <si>
@@ -242,9 +203,6 @@
     <t>1280 х 1280 х 957</t>
   </si>
   <si>
-    <t>1280х1280х1057</t>
-  </si>
-  <si>
     <t>1330 x 1330 x 1350</t>
   </si>
   <si>
@@ -257,14 +215,62 @@
     <t>1280 x 1280 x 908</t>
   </si>
   <si>
-    <t>1280 х 1 280 х 1 000</t>
+    <t>АO "345 МЗ"</t>
+  </si>
+  <si>
+    <t>1280 х 1280 х 1057</t>
+  </si>
+  <si>
+    <t>2620 х 1430 х 1080</t>
+  </si>
+  <si>
+    <t>950 х 950 х 1300</t>
+  </si>
+  <si>
+    <t>950 х 950 х 1500</t>
+  </si>
+  <si>
+    <t>1500 х 1500 х 2000</t>
+  </si>
+  <si>
+    <t>1750 х 1750 х 1340</t>
+  </si>
+  <si>
+    <t>1200 х 1200 х 1450</t>
+  </si>
+  <si>
+    <t>1650 х 1650 х 1350</t>
+  </si>
+  <si>
+    <t>1650 х 1650 х 1375</t>
+  </si>
+  <si>
+    <t>1660 х 1660 х 1380</t>
+  </si>
+  <si>
+    <t>1670 х 1670 х 1375</t>
+  </si>
+  <si>
+    <t>1280 х 1280 х 1000</t>
+  </si>
+  <si>
+    <t>1280 х 1280 х 900</t>
+  </si>
+  <si>
+    <t>1650 х 1650 х 1340</t>
+  </si>
+  <si>
+    <t>1650 х 1650 х 1370</t>
+  </si>
+  <si>
+    <t>1200 х 1200 х 1430</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +296,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="PT Astra Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="PT Astra Sans"/>
       <family val="2"/>
@@ -375,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,47 +405,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -715,15 +702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="11" customWidth="1"/>
+    <col min="3" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" thickBot="1">
@@ -751,849 +740,852 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>1.17</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>1.35</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
-        <v>3.65</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2.5</v>
-      </c>
+        <v>2.06</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4">
-        <v>3.73</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4">
-        <v>3.65</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.96</v>
-      </c>
+        <v>2.09</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.96</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4">
-        <v>3.73</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.96</v>
-      </c>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4">
-        <v>3.65</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>1.64</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4">
-        <v>3.73</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>3.68</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="4">
-        <v>3</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4">
-        <v>3.65</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>3.74</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4">
-        <v>3.73</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>21</v>
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.5" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>3.83</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.5" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.74</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4">
-        <v>4.0999999999999996</v>
+        <v>1.47</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2.09</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.5" thickBot="1">
+        <v>1.57</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4">
-        <v>4.0999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.39</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.06</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4.05</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4">
-        <v>4</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1">
+    </row>
+    <row r="24" spans="1:8" ht="19.5" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
-        <v>3.74</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>1.49</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4">
         <v>3.83</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" thickBot="1">
+      <c r="D26" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="4">
+    </row>
+    <row r="30" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7">
         <v>3.74</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.64</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="38.25" thickBot="1">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4">
-        <v>3.68</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.17</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" thickBot="1">
+      <c r="D30" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4">
-        <v>1.35</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>3.74</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" thickBot="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="D32" s="5"/>
+        <v>3.74</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4">
         <v>4</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1.74</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E33" s="14">
-        <v>0.78</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18">
+      <c r="G36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="10">
-        <v>3.83</v>
-      </c>
-      <c r="D34" s="12">
-        <v>1.05</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="D35" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="E35" s="14">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="4">
         <v>3.74</v>
       </c>
-      <c r="D36" s="12">
-        <v>0.94</v>
-      </c>
-      <c r="E36" s="14">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="10">
-        <v>1.57</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0.89</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18">
+      <c r="C40" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1.73</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E38" s="14">
-        <v>0.81</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18">
+      <c r="G40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0.87</v>
-      </c>
-      <c r="E39" s="14">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="10">
-        <v>2.39</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0.59</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0.44</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="10">
-        <v>1.65</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0.77</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18">
+      <c r="G42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3.65</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1.49</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0.67</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="11">
-        <v>3.74</v>
-      </c>
-      <c r="D44" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="19">
-        <v>8.5</v>
+      <c r="G44" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
